--- a/data/balance_sheet/3digits/total/639_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/639_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>639-Other information service activities</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>639-Other information service activities</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>136842.89453</v>
@@ -1496,26 +946,31 @@
         <v>319381.5229</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>435831.7421500001</v>
+        <v>436052.3021900001</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>383394.99673</v>
+        <v>393992.50256</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>528008.10135</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>666585.2968000001</v>
+        <v>666626.9147000001</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>726471.18118</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>726918.69968</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>942589.4350000001</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>33141.32291</v>
@@ -1524,41 +979,46 @@
         <v>31069.2487</v>
       </c>
       <c r="E6" s="23" t="n">
-        <v>41623.08229</v>
+        <v>41623.08229000001</v>
       </c>
       <c r="F6" s="33" t="n">
         <v>40102.43843</v>
       </c>
       <c r="G6" s="23" t="n">
-        <v>54140.31128</v>
+        <v>54140.31127999999</v>
       </c>
       <c r="H6" s="33" t="n">
         <v>64650.55613</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>94588.58534000001</v>
+        <v>94589.10430000001</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>99767.94993</v>
+        <v>105203.50847</v>
       </c>
       <c r="K6" s="23" t="n">
         <v>167274.27945</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>223994.9254</v>
+        <v>224001.00649</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>178242.27583</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>178332.72018</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>331251.724</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
-        <v>6081.650560000001</v>
+        <v>6081.65056</v>
       </c>
       <c r="D7" s="22" t="n">
         <v>12977.89273</v>
@@ -1576,26 +1036,31 @@
         <v>9983.828230000001</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>11652.13639</v>
+        <v>11652.65535</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>9229.697279999998</v>
+        <v>9230.17252</v>
       </c>
       <c r="K7" s="22" t="n">
         <v>10144.21039</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>11321.60764</v>
+        <v>11326.38873</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>13689.76109</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>13753.30756</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>17145.869</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>1243.18574</v>
@@ -1619,7 +1084,7 @@
         <v>4768.288689999999</v>
       </c>
       <c r="J8" s="21" t="n">
-        <v>5808.666740000001</v>
+        <v>5828.72674</v>
       </c>
       <c r="K8" s="22" t="n">
         <v>5532.979689999999</v>
@@ -1630,12 +1095,17 @@
       <c r="M8" s="22" t="n">
         <v>6318.23221</v>
       </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+      <c r="N8" s="22" t="n">
+        <v>7239.544</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>26466.75625</v>
@@ -1659,23 +1129,28 @@
         <v>77951.44521999999</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>84015.39196000001</v>
+        <v>89401.35097999999</v>
       </c>
       <c r="K9" s="22" t="n">
         <v>146537.11103</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>208405.7264</v>
+        <v>208407.0264</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>157113.91975</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>157140.81763</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>305584.437</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>733.04641</v>
@@ -1684,13 +1159,13 @@
         <v>582.7054000000001</v>
       </c>
       <c r="E10" s="22" t="n">
-        <v>998.0763800000001</v>
+        <v>998.07638</v>
       </c>
       <c r="F10" s="21" t="n">
         <v>2183.53369</v>
       </c>
       <c r="G10" s="22" t="n">
-        <v>526.62593</v>
+        <v>526.6259299999999</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>342.87646</v>
@@ -1699,7 +1174,7 @@
         <v>265.29794</v>
       </c>
       <c r="J10" s="21" t="n">
-        <v>267.0120899999999</v>
+        <v>267.01209</v>
       </c>
       <c r="K10" s="22" t="n">
         <v>413.205</v>
@@ -1710,12 +1185,17 @@
       <c r="M10" s="22" t="n">
         <v>340</v>
       </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+      <c r="N10" s="22" t="n">
+        <v>197.36</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>82.77677</v>
@@ -1730,7 +1210,7 @@
         <v>576.4605600000001</v>
       </c>
       <c r="G11" s="22" t="n">
-        <v>739.2469599999999</v>
+        <v>739.2469600000001</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>438.69215</v>
@@ -1739,23 +1219,28 @@
         <v>482.01298</v>
       </c>
       <c r="J11" s="21" t="n">
-        <v>981.20604</v>
+        <v>1010.27032</v>
       </c>
       <c r="K11" s="22" t="n">
         <v>5473.18334</v>
       </c>
       <c r="L11" s="22" t="n">
-        <v>754.4691400000002</v>
+        <v>754.46914</v>
       </c>
       <c r="M11" s="22" t="n">
         <v>1460.36278</v>
       </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+      <c r="N11" s="22" t="n">
+        <v>1479.234</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>1382.13156</v>
@@ -1788,14 +1273,19 @@
         <v>7064.3012</v>
       </c>
       <c r="M12" s="23" t="n">
-        <v>7013.46386</v>
-      </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+        <v>7013.463860000002</v>
+      </c>
+      <c r="N12" s="23" t="n">
+        <v>12478.876</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>201.21687</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>10.16795</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>10.168</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>0.53844</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>1406.62924</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>355.637</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>61.18431</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>270.55643</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>237.389</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>1119.19194</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>5326.11024</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>11875.682</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,21 +1500,26 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
-        <v>56551.54477</v>
+        <v>56551.54476999999</v>
       </c>
       <c r="D18" s="23" t="n">
         <v>71398.72445000001</v>
       </c>
       <c r="E18" s="23" t="n">
-        <v>82971.00563</v>
+        <v>82971.00563000001</v>
       </c>
       <c r="F18" s="33" t="n">
         <v>100802.38274</v>
@@ -2019,29 +1534,34 @@
         <v>203181.01158</v>
       </c>
       <c r="J18" s="33" t="n">
-        <v>189114.22891</v>
+        <v>192302.98718</v>
       </c>
       <c r="K18" s="23" t="n">
         <v>257680.25932</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>267212.1862700001</v>
+        <v>267245.81627</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>349573.26623</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>349614.61024</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>357434.076</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>46129.51278</v>
       </c>
       <c r="D19" s="22" t="n">
-        <v>61013.14409</v>
+        <v>61013.14408999999</v>
       </c>
       <c r="E19" s="22" t="n">
         <v>74334.77597</v>
@@ -2050,7 +1570,7 @@
         <v>88087.66297</v>
       </c>
       <c r="G19" s="22" t="n">
-        <v>97653.32701000001</v>
+        <v>97653.32700999999</v>
       </c>
       <c r="H19" s="21" t="n">
         <v>110138.38099</v>
@@ -2059,29 +1579,34 @@
         <v>185238.06173</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>175933.35741</v>
+        <v>178949.85495</v>
       </c>
       <c r="K19" s="22" t="n">
         <v>243568.82571</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>249801.28312</v>
+        <v>249834.91312</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>329595.10054</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>329636.44455</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>339059.564</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>8182.49577</v>
       </c>
       <c r="D20" s="22" t="n">
-        <v>6176.351539999999</v>
+        <v>6176.35154</v>
       </c>
       <c r="E20" s="22" t="n">
         <v>3536.02483</v>
@@ -2093,7 +1618,7 @@
         <v>4921.75975</v>
       </c>
       <c r="H20" s="21" t="n">
-        <v>7401.431020000001</v>
+        <v>7401.43102</v>
       </c>
       <c r="I20" s="22" t="n">
         <v>9307.40641</v>
@@ -2102,7 +1627,7 @@
         <v>5920.29641</v>
       </c>
       <c r="K20" s="22" t="n">
-        <v>6254.26009</v>
+        <v>6254.260089999999</v>
       </c>
       <c r="L20" s="22" t="n">
         <v>10192.86562</v>
@@ -2110,12 +1635,17 @@
       <c r="M20" s="22" t="n">
         <v>10930.27997</v>
       </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+      <c r="N20" s="22" t="n">
+        <v>9369.468000000001</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>27.18193</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,15 +1725,20 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
-        <v>940.91187</v>
+        <v>940.9118700000001</v>
       </c>
       <c r="D23" s="22" t="n">
         <v>647.5754099999999</v>
@@ -2230,12 +1770,17 @@
       <c r="M23" s="22" t="n">
         <v>4523.4632</v>
       </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+      <c r="N23" s="22" t="n">
+        <v>4719.356</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>194.70353</v>
@@ -2250,13 +1795,13 @@
         <v>215.37812</v>
       </c>
       <c r="G24" s="22" t="n">
-        <v>742.5890899999999</v>
+        <v>742.5890900000001</v>
       </c>
       <c r="H24" s="21" t="n">
         <v>2049.06426</v>
       </c>
       <c r="I24" s="22" t="n">
-        <v>2476.48508</v>
+        <v>2476.485079999999</v>
       </c>
       <c r="J24" s="21" t="n">
         <v>1170.62299</v>
@@ -2270,15 +1815,20 @@
       <c r="M24" s="22" t="n">
         <v>415.54591</v>
       </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+      <c r="N24" s="22" t="n">
+        <v>460.787</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
-        <v>5371.62451</v>
+        <v>5371.624510000001</v>
       </c>
       <c r="D25" s="22" t="n">
         <v>10081.5558</v>
@@ -2299,7 +1849,7 @@
         <v>17232.97654</v>
       </c>
       <c r="J25" s="21" t="n">
-        <v>18247.88694</v>
+        <v>18420.14767</v>
       </c>
       <c r="K25" s="22" t="n">
         <v>20345.65458</v>
@@ -2310,15 +1860,20 @@
       <c r="M25" s="22" t="n">
         <v>18159.6853</v>
       </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+      <c r="N25" s="22" t="n">
+        <v>17616.721</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
-        <v>4240.52176</v>
+        <v>4240.521760000001</v>
       </c>
       <c r="D26" s="22" t="n">
         <v>6683.296679999999</v>
@@ -2350,15 +1905,20 @@
       <c r="M26" s="22" t="n">
         <v>14050.80869</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>13791.82</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
-        <v>7993.454040000001</v>
+        <v>7993.45404</v>
       </c>
       <c r="D27" s="23" t="n">
         <v>31085.28324</v>
@@ -2373,29 +1933,34 @@
         <v>19319.6976</v>
       </c>
       <c r="H27" s="33" t="n">
-        <v>69334.34098000001</v>
+        <v>69334.34097999999</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>71916.40952</v>
+        <v>71916.40952000002</v>
       </c>
       <c r="J27" s="33" t="n">
-        <v>32127.10267</v>
+        <v>32174.36579</v>
       </c>
       <c r="K27" s="23" t="n">
         <v>41519.34356</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>77220.57909999999</v>
+        <v>77221.88853</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>77884.82338000002</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>78031.659</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>116922.276</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>4072.66509</v>
@@ -2419,7 +1984,7 @@
         <v>17899.84669</v>
       </c>
       <c r="J28" s="21" t="n">
-        <v>22605.04404</v>
+        <v>22625.45552</v>
       </c>
       <c r="K28" s="22" t="n">
         <v>28618.99774</v>
@@ -2428,14 +1993,19 @@
         <v>26086.32208</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>23605.72256</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>23751.65635</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>57802.569</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>0</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>188.15279</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>1480.218</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>1270.88947</v>
@@ -2550,12 +2130,17 @@
       <c r="M31" s="22" t="n">
         <v>6209.940570000001</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>7722.313</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>2461.74669</v>
@@ -2573,29 +2158,34 @@
         <v>4638.34693</v>
       </c>
       <c r="H32" s="21" t="n">
-        <v>53157.70024000001</v>
+        <v>53157.70023999999</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>52580.24025</v>
+        <v>52580.24025000001</v>
       </c>
       <c r="J32" s="21" t="n">
-        <v>6570.00562</v>
+        <v>6596.85726</v>
       </c>
       <c r="K32" s="22" t="n">
         <v>11896.60249</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>40452.17645000001</v>
+        <v>40453.48588</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>48069.16025</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>48070.06208</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>49917.176</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>0</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>10153.35603</v>
@@ -2736,26 +2341,31 @@
         <v>17161.13385</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>21635.14992</v>
+        <v>21704.14992</v>
       </c>
       <c r="J36" s="33" t="n">
-        <v>29890.56416000001</v>
+        <v>29891.31416</v>
       </c>
       <c r="K36" s="23" t="n">
         <v>23725.08912</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>33981.90713</v>
+        <v>33981.90712999999</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>49592.34257</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>49735.66382</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>47102.416</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>2455.28461</v>
@@ -2770,7 +2380,7 @@
         <v>1437.2713</v>
       </c>
       <c r="G37" s="22" t="n">
-        <v>4470.632019999999</v>
+        <v>4470.632020000001</v>
       </c>
       <c r="H37" s="21" t="n">
         <v>5158.97127</v>
@@ -2788,14 +2398,19 @@
         <v>2017.34907</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>1176.27336</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>1312.42085</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>1889.59</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>69.72597</v>
@@ -2830,12 +2445,17 @@
       <c r="M38" s="22" t="n">
         <v>496.475</v>
       </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+      <c r="N38" s="22" t="n">
+        <v>128.11</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>300.49009</v>
@@ -2870,12 +2490,17 @@
       <c r="M39" s="22" t="n">
         <v>88.72011000000001</v>
       </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+      <c r="N39" s="22" t="n">
+        <v>188.145</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>1300.60927</v>
@@ -2896,26 +2521,31 @@
         <v>2225.51721</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>4615.687440000001</v>
+        <v>4684.68744</v>
       </c>
       <c r="J40" s="21" t="n">
-        <v>7254.211329999999</v>
+        <v>7254.21133</v>
       </c>
       <c r="K40" s="22" t="n">
-        <v>6683.130730000001</v>
+        <v>6683.13073</v>
       </c>
       <c r="L40" s="22" t="n">
         <v>9066.875239999999</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>9880.49541</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>9883.484950000002</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>9067.182000000001</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>429.35136</v>
@@ -2939,7 +2569,7 @@
         <v>3878.22826</v>
       </c>
       <c r="J41" s="21" t="n">
-        <v>5545.86662</v>
+        <v>5546.61662</v>
       </c>
       <c r="K41" s="22" t="n">
         <v>3070.68408</v>
@@ -2950,12 +2580,17 @@
       <c r="M41" s="22" t="n">
         <v>1837.29752</v>
       </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+      <c r="N41" s="22" t="n">
+        <v>716.28</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>5597.894730000001</v>
@@ -3016,7 +2656,7 @@
         <v>8750.926750000001</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>6024.717869999999</v>
+        <v>6024.717870000001</v>
       </c>
       <c r="J43" s="21" t="n">
         <v>12140.47876</v>
@@ -3028,14 +2668,19 @@
         <v>10942.78271</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>36113.08117</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>36117.26539</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>35113.109</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>606.94984</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>606.94984</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>3142.67009</v>
@@ -3204,38 +2869,43 @@
         <v>3316.6443</v>
       </c>
       <c r="E48" s="46" t="n">
-        <v>5444.663600000001</v>
+        <v>5444.6636</v>
       </c>
       <c r="F48" s="45" t="n">
         <v>6711.41344</v>
       </c>
       <c r="G48" s="46" t="n">
-        <v>4596.274579999999</v>
+        <v>4596.27458</v>
       </c>
       <c r="H48" s="45" t="n">
-        <v>3907.469799999999</v>
+        <v>3907.4698</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>7037.816289999999</v>
+        <v>7188.6378</v>
       </c>
       <c r="J48" s="45" t="n">
-        <v>4981.88437</v>
+        <v>4999.75922</v>
       </c>
       <c r="K48" s="46" t="n">
-        <v>9302.262260000001</v>
+        <v>9302.26226</v>
       </c>
       <c r="L48" s="46" t="n">
         <v>15598.58855</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>19140.3608</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>19140.74911</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>35375.309</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>2141.82638</v>
@@ -3256,26 +2926,31 @@
         <v>2608.90687</v>
       </c>
       <c r="I49" s="22" t="n">
-        <v>2284.18025</v>
+        <v>2435.00176</v>
       </c>
       <c r="J49" s="21" t="n">
-        <v>4633.27215</v>
+        <v>4637.635189999999</v>
       </c>
       <c r="K49" s="22" t="n">
-        <v>7668.171710000001</v>
+        <v>7668.171709999999</v>
       </c>
       <c r="L49" s="22" t="n">
         <v>8449.50122</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>15512.24188</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>15512.60887</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>22743.252</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>1000.84371</v>
@@ -3296,10 +2971,10 @@
         <v>1298.56293</v>
       </c>
       <c r="I50" s="22" t="n">
-        <v>4753.63604</v>
+        <v>4753.636039999999</v>
       </c>
       <c r="J50" s="21" t="n">
-        <v>348.61222</v>
+        <v>362.1240299999999</v>
       </c>
       <c r="K50" s="22" t="n">
         <v>1634.09055</v>
@@ -3308,14 +2983,19 @@
         <v>7149.08733</v>
       </c>
       <c r="M50" s="22" t="n">
-        <v>3628.11892</v>
-      </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+        <v>3628.14024</v>
+      </c>
+      <c r="N50" s="22" t="n">
+        <v>12632.057</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>23871.46529</v>
@@ -3336,26 +3016,31 @@
         <v>37463.69001999999</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>35040.61514</v>
+        <v>35040.83471</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>23728.58637</v>
+        <v>25635.88742</v>
       </c>
       <c r="K51" s="46" t="n">
         <v>27220.53325</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>41512.80915</v>
+        <v>41513.40653</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>45024.64851</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>45049.83347</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>42024.758</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>3625.35074</v>
@@ -3364,10 +3049,10 @@
         <v>8365.506579999999</v>
       </c>
       <c r="E52" s="22" t="n">
-        <v>6637.55334</v>
+        <v>6637.553339999999</v>
       </c>
       <c r="F52" s="21" t="n">
-        <v>8760.054600000001</v>
+        <v>8760.054599999999</v>
       </c>
       <c r="G52" s="22" t="n">
         <v>9474.31438</v>
@@ -3376,26 +3061,31 @@
         <v>14138.12216</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>14837.25524</v>
+        <v>14837.47481</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>9807.021550000001</v>
+        <v>11553.4486</v>
       </c>
       <c r="K52" s="22" t="n">
         <v>12871.28378</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>21966.14271</v>
+        <v>21966.74009</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>21521.64394</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>21544.8901</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>25621.634</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>1e-05</v>
@@ -3419,7 +3109,7 @@
         <v>4.93337</v>
       </c>
       <c r="J53" s="21" t="n">
-        <v>7.389620000000001</v>
+        <v>7.38962</v>
       </c>
       <c r="K53" s="22" t="n">
         <v>47.08369</v>
@@ -3430,12 +3120,17 @@
       <c r="M53" s="22" t="n">
         <v>74.36796</v>
       </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+      <c r="N53" s="22" t="n">
+        <v>254.339</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>12.70601</v>
@@ -3470,15 +3165,20 @@
       <c r="M54" s="22" t="n">
         <v>235.91179</v>
       </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+      <c r="N54" s="22" t="n">
+        <v>36.082</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
-        <v>310.56099</v>
+        <v>310.5609900000001</v>
       </c>
       <c r="D55" s="22" t="n">
         <v>434.25591</v>
@@ -3490,7 +3190,7 @@
         <v>279.42758</v>
       </c>
       <c r="G55" s="22" t="n">
-        <v>532.21806</v>
+        <v>532.2180599999999</v>
       </c>
       <c r="H55" s="21" t="n">
         <v>2061.11709</v>
@@ -3499,7 +3199,7 @@
         <v>1650.4944</v>
       </c>
       <c r="J55" s="21" t="n">
-        <v>908.58946</v>
+        <v>1013.91574</v>
       </c>
       <c r="K55" s="22" t="n">
         <v>1813.35679</v>
@@ -3508,17 +3208,22 @@
         <v>1783.28599</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>1027.21833</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>1029.15713</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>2724.243</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
-        <v>3766.652859999999</v>
+        <v>3766.65286</v>
       </c>
       <c r="D56" s="22" t="n">
         <v>6908.73462</v>
@@ -3539,23 +3244,28 @@
         <v>15604.83023</v>
       </c>
       <c r="J56" s="21" t="n">
-        <v>6957.6986</v>
+        <v>6978.195400000001</v>
       </c>
       <c r="K56" s="22" t="n">
-        <v>8643.639529999999</v>
+        <v>8643.63953</v>
       </c>
       <c r="L56" s="22" t="n">
-        <v>9245.830749999997</v>
+        <v>9245.830749999999</v>
       </c>
       <c r="M56" s="22" t="n">
-        <v>9270.071689999999</v>
-      </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+        <v>9270.071690000001</v>
+      </c>
+      <c r="N56" s="22" t="n">
+        <v>10745.986</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>3276.5279</v>
@@ -3564,7 +3274,7 @@
         <v>3424.83762</v>
       </c>
       <c r="E57" s="22" t="n">
-        <v>3279.94565</v>
+        <v>3279.945650000001</v>
       </c>
       <c r="F57" s="21" t="n">
         <v>2726.82151</v>
@@ -3579,23 +3289,28 @@
         <v>1805.6425</v>
       </c>
       <c r="J57" s="21" t="n">
-        <v>5366.379349999999</v>
+        <v>5401.430270000001</v>
       </c>
       <c r="K57" s="22" t="n">
         <v>1764.46628</v>
       </c>
       <c r="L57" s="22" t="n">
-        <v>5884.962419999999</v>
+        <v>5884.96242</v>
       </c>
       <c r="M57" s="22" t="n">
         <v>12854.65252</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>2582.913</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>12879.66678</v>
@@ -3650,7 +3370,7 @@
         <v>15.39206</v>
       </c>
       <c r="G59" s="22" t="n">
-        <v>77.88299000000001</v>
+        <v>77.88298999999999</v>
       </c>
       <c r="H59" s="21" t="n">
         <v>28.72485</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>40.78228</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>59.561</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>105701.3623</v>
@@ -3738,35 +3468,40 @@
         <v>192201.35041</v>
       </c>
       <c r="J61" s="37" t="n">
-        <v>212386.07942</v>
+        <v>212504.59982</v>
       </c>
       <c r="K61" s="36" t="n">
         <v>255017.0594</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>341484.64146</v>
+        <v>341497.07231</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>355438.03021</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>355499.84126</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>427667.782</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>483.44936</v>
       </c>
       <c r="D62" s="36" t="n">
-        <v>5028.452189999999</v>
+        <v>5028.45219</v>
       </c>
       <c r="E62" s="36" t="n">
         <v>5032.71005</v>
       </c>
       <c r="F62" s="37" t="n">
-        <v>5560.62092</v>
+        <v>5560.620920000001</v>
       </c>
       <c r="G62" s="36" t="n">
         <v>7877.894270000001</v>
@@ -3778,7 +3513,7 @@
         <v>9036.890640000001</v>
       </c>
       <c r="J62" s="37" t="n">
-        <v>7137.66937</v>
+        <v>7172.07184</v>
       </c>
       <c r="K62" s="36" t="n">
         <v>3973.07513</v>
@@ -3789,12 +3524,17 @@
       <c r="M62" s="36" t="n">
         <v>4001.0938</v>
       </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+      <c r="N62" s="36" t="n">
+        <v>5802.73</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>7.16088</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>515.2851900000001</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>184.343</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>166</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>2323.86</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,18 +3704,23 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>310.28848</v>
       </c>
       <c r="D67" s="22" t="n">
-        <v>333.4360799999999</v>
+        <v>333.43608</v>
       </c>
       <c r="E67" s="22" t="n">
         <v>440.48931</v>
@@ -3978,7 +3738,7 @@
         <v>1464.75634</v>
       </c>
       <c r="J67" s="21" t="n">
-        <v>1888.65948</v>
+        <v>1923.06195</v>
       </c>
       <c r="K67" s="22" t="n">
         <v>2540.61881</v>
@@ -3989,12 +3749,17 @@
       <c r="M67" s="22" t="n">
         <v>3485.80861</v>
       </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+      <c r="N67" s="22" t="n">
+        <v>3294.527</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>371.72439</v>
@@ -4069,12 +3839,17 @@
       <c r="M69" s="36" t="n">
         <v>723.49388</v>
       </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+      <c r="N69" s="36" t="n">
+        <v>18382.527</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>0</v>
@@ -4109,12 +3884,17 @@
       <c r="M70" s="22" t="n">
         <v>314.57203</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>305.436</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>32.70084</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>49.24669</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>13.395</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>14.874</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>276.38186</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>408.9218499999999</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>18062.217</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,15 +4154,20 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
-        <v>55175.73292</v>
+        <v>55175.73291999999</v>
       </c>
       <c r="D77" s="23" t="n">
         <v>13001.38668</v>
@@ -4372,10 +4182,10 @@
         <v>125318.09178</v>
       </c>
       <c r="H77" s="33" t="n">
-        <v>74265.60497999999</v>
+        <v>74265.60498</v>
       </c>
       <c r="I77" s="23" t="n">
-        <v>92044.39103</v>
+        <v>92044.39103000001</v>
       </c>
       <c r="J77" s="33" t="n">
         <v>98472.14103</v>
@@ -4387,14 +4197,19 @@
         <v>114941.73993</v>
       </c>
       <c r="M77" s="23" t="n">
-        <v>129126.29998</v>
-      </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+        <v>129154.79998</v>
+      </c>
+      <c r="N77" s="23" t="n">
+        <v>134654.193</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>0</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>55172.99716</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>32194.91222</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>32194.912</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>2.5</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>5.23576</v>
@@ -4627,14 +4467,19 @@
         <v>57575.79276</v>
       </c>
       <c r="M83" s="22" t="n">
-        <v>96968.88776000001</v>
-      </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+        <v>96997.38776000001</v>
+      </c>
+      <c r="N83" s="22" t="n">
+        <v>102496.781</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>37.5</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,12 +4649,17 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>39622.76055</v>
@@ -4815,26 +4680,31 @@
         <v>52705.00721</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>61950.76921</v>
+        <v>61950.76920999999</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>63102.68945999999</v>
+        <v>63125.99692000001</v>
       </c>
       <c r="K88" s="23" t="n">
-        <v>82838.5885</v>
+        <v>82838.58850000001</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>111305.20759</v>
+        <v>111317.63844</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>113159.28163</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>113247.40519</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>159547.492</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>7339.9142</v>
@@ -4869,12 +4739,17 @@
       <c r="M89" s="22" t="n">
         <v>8448.36339</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>7663.569</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>0</v>
@@ -4909,18 +4784,23 @@
       <c r="M90" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>5648.71031</v>
       </c>
       <c r="D91" s="22" t="n">
-        <v>7715.38683</v>
+        <v>7715.386830000001</v>
       </c>
       <c r="E91" s="22" t="n">
         <v>7244.27699</v>
@@ -4929,7 +4809,7 @@
         <v>8245.5915</v>
       </c>
       <c r="G91" s="22" t="n">
-        <v>8081.981340000001</v>
+        <v>8081.98134</v>
       </c>
       <c r="H91" s="21" t="n">
         <v>10255.65756</v>
@@ -4949,21 +4829,26 @@
       <c r="M91" s="22" t="n">
         <v>36418.03277000001</v>
       </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+      <c r="N91" s="22" t="n">
+        <v>53513.21</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>53970.5903</v>
       </c>
       <c r="D92" s="22" t="n">
-        <v>58975.19046</v>
+        <v>58975.19045999999</v>
       </c>
       <c r="E92" s="22" t="n">
-        <v>44800.99937</v>
+        <v>44800.99937000001</v>
       </c>
       <c r="F92" s="21" t="n">
         <v>56882.66876</v>
@@ -4975,13 +4860,13 @@
         <v>69991.36520999999</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>76554.65916</v>
+        <v>76554.65915999998</v>
       </c>
       <c r="J92" s="21" t="n">
         <v>84401.31582999999</v>
       </c>
       <c r="K92" s="22" t="n">
-        <v>97891.38462</v>
+        <v>97891.38462000001</v>
       </c>
       <c r="L92" s="22" t="n">
         <v>93523.48207</v>
@@ -4989,12 +4874,17 @@
       <c r="M92" s="22" t="n">
         <v>96501.41997</v>
       </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+      <c r="N92" s="22" t="n">
+        <v>115860.44</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>13151.02854</v>
@@ -5029,24 +4919,29 @@
       <c r="M93" s="22" t="n">
         <v>45952.425</v>
       </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+      <c r="N93" s="22" t="n">
+        <v>45313.672</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
-        <v>92663.57222999999</v>
+        <v>92663.57223000001</v>
       </c>
       <c r="D94" s="22" t="n">
         <v>94270.07762000001</v>
       </c>
       <c r="E94" s="22" t="n">
-        <v>97684.35137999999</v>
+        <v>97684.35138000001</v>
       </c>
       <c r="F94" s="21" t="n">
-        <v>98884.16167999999</v>
+        <v>98884.16168</v>
       </c>
       <c r="G94" s="22" t="n">
         <v>103315.43816</v>
@@ -5058,23 +4953,28 @@
         <v>111548.83644</v>
       </c>
       <c r="J94" s="21" t="n">
-        <v>113808.27163</v>
+        <v>113889.12141</v>
       </c>
       <c r="K94" s="22" t="n">
         <v>117831.33149</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>111391.7765</v>
+        <v>111404.20735</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>107770.98558</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>107861.33155</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>133158.82</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>721.4984099999999</v>
@@ -5109,12 +5009,17 @@
       <c r="M95" s="22" t="n">
         <v>173.65358</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>2316.021</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>138180.53577</v>
@@ -5138,7 +5043,7 @@
         <v>164880.99296</v>
       </c>
       <c r="J96" s="21" t="n">
-        <v>176239.92124</v>
+        <v>176297.46356</v>
       </c>
       <c r="K96" s="22" t="n">
         <v>185885.40677</v>
@@ -5147,14 +5052,19 @@
         <v>171161.15872</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>186474.6854</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>186476.90781</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>213112.746</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>3404.92995</v>
@@ -5166,7 +5076,7 @@
         <v>47.37161</v>
       </c>
       <c r="F97" s="21" t="n">
-        <v>581.1870900000001</v>
+        <v>581.18709</v>
       </c>
       <c r="G97" s="22" t="n">
         <v>2869.60889</v>
@@ -5189,12 +5099,17 @@
       <c r="M97" s="22" t="n">
         <v>4369.086740000001</v>
       </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+      <c r="N97" s="22" t="n">
+        <v>14392.997</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>903.0523799999999</v>
@@ -5229,12 +5144,17 @@
       <c r="M98" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>441.509</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>8779.61692</v>
@@ -5258,7 +5178,7 @@
         <v>23582.24017</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>21004.57669999999</v>
+        <v>21009.51868</v>
       </c>
       <c r="K99" s="23" t="n">
         <v>29101.88786</v>
@@ -5267,14 +5187,19 @@
         <v>70416.06743000001</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>68992.93117</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>68937.31609000001</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>79660.923</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>16015.77755</v>
@@ -5298,23 +5223,28 @@
         <v>34531.24758</v>
       </c>
       <c r="J100" s="21" t="n">
-        <v>30157.62523</v>
+        <v>30166.1662</v>
       </c>
       <c r="K100" s="22" t="n">
         <v>42568.69353</v>
       </c>
       <c r="L100" s="22" t="n">
-        <v>40325.58369</v>
+        <v>40325.58369000001</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>46014.14293</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>46043.36063999999</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>50131.593</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
@@ -5349,18 +5279,23 @@
       <c r="M101" s="22" t="n">
         <v>20842.90005</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>20853.985</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>9629.768549999999</v>
       </c>
       <c r="D102" s="22" t="n">
-        <v>9648.36564</v>
+        <v>9648.365639999998</v>
       </c>
       <c r="E102" s="22" t="n">
         <v>9672.91993</v>
@@ -5369,7 +5304,7 @@
         <v>9719.515879999999</v>
       </c>
       <c r="G102" s="22" t="n">
-        <v>9681.996099999998</v>
+        <v>9681.9961</v>
       </c>
       <c r="H102" s="21" t="n">
         <v>9696.87437</v>
@@ -5387,14 +5322,19 @@
         <v>9809.791360000001</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>9803.282780000001</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>9808.04818</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>9816.482</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>1948.7026</v>
@@ -5427,14 +5367,19 @@
         <v>5904.157180000001</v>
       </c>
       <c r="M103" s="22" t="n">
-        <v>9955.311889999999</v>
-      </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+        <v>9866.19024</v>
+      </c>
+      <c r="N103" s="22" t="n">
+        <v>11609.664</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>7448.30464</v>
@@ -5446,7 +5391,7 @@
         <v>8879.627699999999</v>
       </c>
       <c r="F104" s="21" t="n">
-        <v>9721.896829999998</v>
+        <v>9721.89683</v>
       </c>
       <c r="G104" s="22" t="n">
         <v>10420.48922</v>
@@ -5458,7 +5403,7 @@
         <v>12370.07526</v>
       </c>
       <c r="J104" s="21" t="n">
-        <v>18366.92754</v>
+        <v>18375.95885</v>
       </c>
       <c r="K104" s="22" t="n">
         <v>20920.91106</v>
@@ -5469,18 +5414,23 @@
       <c r="M104" s="22" t="n">
         <v>22415.49193</v>
       </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+      <c r="N104" s="22" t="n">
+        <v>26769.794</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
-        <v>5990.88329</v>
+        <v>5990.883289999999</v>
       </c>
       <c r="D105" s="22" t="n">
-        <v>7429.61408</v>
+        <v>7429.614079999998</v>
       </c>
       <c r="E105" s="22" t="n">
         <v>9406.636339999999</v>
@@ -5509,12 +5459,17 @@
       <c r="M105" s="22" t="n">
         <v>59400.51433</v>
       </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+      <c r="N105" s="22" t="n">
+        <v>88881.88099999999</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>32527.09751</v>
@@ -5535,26 +5490,31 @@
         <v>49048.00354000001</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>54860.36891999999</v>
+        <v>54860.36892</v>
       </c>
       <c r="J106" s="21" t="n">
-        <v>61870.3223</v>
+        <v>61882.95260000001</v>
       </c>
       <c r="K106" s="22" t="n">
         <v>70921.07028</v>
       </c>
       <c r="L106" s="22" t="n">
-        <v>88413.21452000001</v>
+        <v>88413.21451999999</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>99638.71274</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>99639.18928000001</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>128402.476</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>273.2778</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>14.29597</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>14.29597</v>
@@ -5829,12 +5819,17 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>1105.24106</v>
@@ -5843,7 +5838,7 @@
         <v>908.4234799999999</v>
       </c>
       <c r="E114" s="23" t="n">
-        <v>960.6228199999998</v>
+        <v>960.6228199999999</v>
       </c>
       <c r="F114" s="33" t="n">
         <v>2076.10447</v>
@@ -5858,7 +5853,7 @@
         <v>5183.03029</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>5627.36213</v>
+        <v>5683.23062</v>
       </c>
       <c r="K114" s="23" t="n">
         <v>6382.37952</v>
@@ -5867,14 +5862,19 @@
         <v>9120.844630000001</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>8144.67255</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>8145.475119999999</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>10425.734</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>1105.24106</v>
@@ -5883,7 +5883,7 @@
         <v>908.1885599999999</v>
       </c>
       <c r="E115" s="22" t="n">
-        <v>960.6228199999998</v>
+        <v>960.6228199999999</v>
       </c>
       <c r="F115" s="21" t="n">
         <v>2074.51077</v>
@@ -5898,23 +5898,28 @@
         <v>5181.76395</v>
       </c>
       <c r="J115" s="21" t="n">
-        <v>5626.41655</v>
+        <v>5682.28504</v>
       </c>
       <c r="K115" s="22" t="n">
-        <v>6365.64119</v>
+        <v>6365.641189999999</v>
       </c>
       <c r="L115" s="22" t="n">
         <v>9084.824339999999</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>8144.67255</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>8145.475119999999</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>10409.976</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>15.758</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>148.54113</v>
@@ -5963,7 +5973,7 @@
         <v>247.50356</v>
       </c>
       <c r="E117" s="23" t="n">
-        <v>508.23908</v>
+        <v>508.2390799999999</v>
       </c>
       <c r="F117" s="33" t="n">
         <v>404.30301</v>
@@ -5989,12 +5999,17 @@
       <c r="M117" s="23" t="n">
         <v>31290.2572</v>
       </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+      <c r="N117" s="23" t="n">
+        <v>19194.183</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0.65079</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>9.04017</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>66.94242999999999</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>70.223</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>138.85017</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>23289.32367</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>11188.455</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>1.51175</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6341,7 +6396,7 @@
         <v>6696.46185</v>
       </c>
       <c r="K126" s="22" t="n">
-        <v>6264.599840000001</v>
+        <v>6264.59984</v>
       </c>
       <c r="L126" s="22" t="n">
         <v>7988.81562</v>
@@ -6349,12 +6404,17 @@
       <c r="M126" s="22" t="n">
         <v>7935.50285</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>7935.505</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>242544.25683</v>
@@ -6366,7 +6426,7 @@
         <v>308765.37667</v>
       </c>
       <c r="F127" s="33" t="n">
-        <v>335616.6289299999</v>
+        <v>335616.62893</v>
       </c>
       <c r="G127" s="23" t="n">
         <v>433152.24617</v>
@@ -6375,23 +6435,26 @@
         <v>470649.59393</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>628033.0925599999</v>
+        <v>628253.6525999999</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>595781.07615</v>
+        <v>606497.1023799999</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>783025.16075</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>1008069.93826</v>
+        <v>1008123.98701</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>1081909.21139</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>1082418.54094</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>1370257.217</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>639-Other information service activities</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,12 +6553,17 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>124964.0816</v>
@@ -6507,26 +6584,31 @@
         <v>232519.05923</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>340580.20736</v>
+        <v>340791.2949100001</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>343927.33156</v>
+        <v>350997.48375</v>
       </c>
       <c r="K132" s="23" t="n">
-        <v>440314.3528699999</v>
+        <v>440314.35287</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>599192.9837100001</v>
+        <v>599248.72046</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>578344.3851000001</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>578911.25998</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>673131.767</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>7526.00067</v>
@@ -6559,14 +6641,19 @@
         <v>33255.34267</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>32333.30323</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>32333.30423</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>32449.684</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>6949.833310000001</v>
@@ -6599,14 +6686,19 @@
         <v>32266.17336</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>31729.213</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>31729.214</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>31773.796</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>626.0089499999999</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>51.3764</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>0</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>234.70818</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>56.559</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>1.53481</v>
@@ -6921,12 +7048,17 @@
       <c r="M142" s="22" t="n">
         <v>369.38205</v>
       </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+      <c r="N142" s="22" t="n">
+        <v>619.329</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>37557.85689</v>
@@ -6947,26 +7079,31 @@
         <v>103528.65074</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>199598.64948</v>
+        <v>199604.69329</v>
       </c>
       <c r="J143" s="45" t="n">
-        <v>189706.31428</v>
+        <v>193214.54534</v>
       </c>
       <c r="K143" s="46" t="n">
         <v>217638.56144</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>278857.30169</v>
+        <v>278859.55333</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>285958.03548</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>286311.2504</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>287631.128</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>28789.12134</v>
@@ -6978,35 +7115,40 @@
         <v>51603.18618</v>
       </c>
       <c r="F144" s="24" t="n">
-        <v>69171.17595</v>
+        <v>69171.17594999999</v>
       </c>
       <c r="G144" s="25" t="n">
-        <v>74284.43708999999</v>
+        <v>74284.43709000001</v>
       </c>
       <c r="H144" s="24" t="n">
         <v>87919.45791</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>179889.86583</v>
+        <v>179895.90964</v>
       </c>
       <c r="J144" s="24" t="n">
-        <v>173943.51687</v>
+        <v>177244.46636</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>198181.36292</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>257178.76621</v>
+        <v>257179.73221</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>218314.3625</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>218583.97075</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>249085.607</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>5564.79747</v>
@@ -7039,14 +7181,19 @@
         <v>18841.57006</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>49582.46023</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>49660.08723</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>25279.242</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>4.25782</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>91.15266</v>
@@ -7121,12 +7273,17 @@
       <c r="M147" s="25" t="n">
         <v>27.28436</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>23.944</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>3117.04324</v>
@@ -7135,7 +7292,7 @@
         <v>2534.45442</v>
       </c>
       <c r="E148" s="25" t="n">
-        <v>940.0479200000001</v>
+        <v>940.04792</v>
       </c>
       <c r="F148" s="24" t="n">
         <v>1020.43039</v>
@@ -7150,29 +7307,34 @@
         <v>3547.52728</v>
       </c>
       <c r="J148" s="24" t="n">
-        <v>3475.96596</v>
+        <v>3683.24753</v>
       </c>
       <c r="K148" s="25" t="n">
         <v>4269.36203</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>2819.02167</v>
+        <v>2820.30731</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>18033.92839</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>18039.90806</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>13242.335</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>38568.14248</v>
       </c>
       <c r="D149" s="23" t="n">
-        <v>42252.85424</v>
+        <v>42252.85423999999</v>
       </c>
       <c r="E149" s="23" t="n">
         <v>48235.67078</v>
@@ -7187,32 +7349,37 @@
         <v>49689.54597</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>52803.76751999999</v>
+        <v>52871.02304000001</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>57868.14443</v>
+        <v>60963.80557</v>
       </c>
       <c r="K149" s="23" t="n">
-        <v>81011.71816999999</v>
+        <v>81011.71817000001</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>125700.45892</v>
+        <v>125735.0761</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>125373.17406</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>125503.85157</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>157988.837</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>8792.867199999999</v>
       </c>
       <c r="D150" s="22" t="n">
-        <v>9225.677689999999</v>
+        <v>9225.67769</v>
       </c>
       <c r="E150" s="22" t="n">
         <v>14879.04462</v>
@@ -7227,26 +7394,31 @@
         <v>28130.92098</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>34293.39798</v>
+        <v>34360.6535</v>
       </c>
       <c r="J150" s="21" t="n">
-        <v>39150.97525</v>
+        <v>39311.60920000001</v>
       </c>
       <c r="K150" s="22" t="n">
-        <v>54606.84523</v>
+        <v>54606.84523000001</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>55949.67326</v>
+        <v>55982.68732</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>79721.39068000001</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>79846.58818999999</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>113651.314</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>346.33831</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>67.73967999999999</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>339.33608</v>
@@ -7321,12 +7498,17 @@
       <c r="M152" s="22" t="n">
         <v>417.37968</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>1274.184</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>3002.21634</v>
@@ -7341,32 +7523,37 @@
         <v>6170.022609999999</v>
       </c>
       <c r="G153" s="22" t="n">
-        <v>4992.19881</v>
+        <v>4992.198810000001</v>
       </c>
       <c r="H153" s="21" t="n">
-        <v>4968.36297</v>
+        <v>4968.362970000001</v>
       </c>
       <c r="I153" s="22" t="n">
         <v>10284.4039</v>
       </c>
       <c r="J153" s="21" t="n">
-        <v>14224.90878</v>
+        <v>14294.38959</v>
       </c>
       <c r="K153" s="22" t="n">
         <v>16019.12826</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>24371.43306</v>
+        <v>24373.03618</v>
       </c>
       <c r="M153" s="22" t="n">
         <v>27751.67814</v>
       </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+      <c r="N153" s="22" t="n">
+        <v>17217.645</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>26087.38455</v>
@@ -7381,32 +7568,37 @@
         <v>4898.02315</v>
       </c>
       <c r="G154" s="22" t="n">
-        <v>4923.558690000001</v>
+        <v>4923.55869</v>
       </c>
       <c r="H154" s="21" t="n">
         <v>15849.90565</v>
       </c>
       <c r="I154" s="22" t="n">
-        <v>7497.225520000001</v>
+        <v>7497.22552</v>
       </c>
       <c r="J154" s="21" t="n">
-        <v>3810.02371</v>
+        <v>6675.57009</v>
       </c>
       <c r="K154" s="22" t="n">
-        <v>9963.904980000001</v>
+        <v>9963.904979999999</v>
       </c>
       <c r="L154" s="22" t="n">
         <v>45004.37207</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>17414.98588</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>17420.46588</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>25809.864</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,12 +7633,17 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>7306.47254</v>
@@ -7458,7 +7655,7 @@
         <v>6300.407310000001</v>
       </c>
       <c r="F156" s="33" t="n">
-        <v>5567.087039999999</v>
+        <v>5567.08704</v>
       </c>
       <c r="G156" s="23" t="n">
         <v>14076.98184</v>
@@ -7470,7 +7667,7 @@
         <v>6513.70388</v>
       </c>
       <c r="J156" s="33" t="n">
-        <v>10047.82892</v>
+        <v>10051.03444</v>
       </c>
       <c r="K156" s="23" t="n">
         <v>10474.6022</v>
@@ -7479,26 +7676,31 @@
         <v>65085.49462999999</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>15241.36804</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>15248.12958</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>39538.142</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
-        <v>7175.189629999999</v>
+        <v>7175.18963</v>
       </c>
       <c r="D157" s="22" t="n">
         <v>10440.11358</v>
       </c>
       <c r="E157" s="22" t="n">
-        <v>6209.072960000001</v>
+        <v>6209.07296</v>
       </c>
       <c r="F157" s="21" t="n">
-        <v>5533.020060000001</v>
+        <v>5533.02006</v>
       </c>
       <c r="G157" s="22" t="n">
         <v>14006.08369</v>
@@ -7507,10 +7709,10 @@
         <v>10687.6053</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>5908.19903</v>
+        <v>5908.199030000001</v>
       </c>
       <c r="J157" s="21" t="n">
-        <v>9085.332759999999</v>
+        <v>9088.538279999999</v>
       </c>
       <c r="K157" s="22" t="n">
         <v>9996.99439</v>
@@ -7519,14 +7721,19 @@
         <v>64973.66563</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>14741.89968</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>14748.66122</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>39039.022</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>131.28291</v>
@@ -7538,7 +7745,7 @@
         <v>91.33435</v>
       </c>
       <c r="F158" s="21" t="n">
-        <v>34.06697999999999</v>
+        <v>34.06698</v>
       </c>
       <c r="G158" s="22" t="n">
         <v>70.89815</v>
@@ -7550,7 +7757,7 @@
         <v>605.5048500000001</v>
       </c>
       <c r="J158" s="21" t="n">
-        <v>962.4961599999999</v>
+        <v>962.4961600000001</v>
       </c>
       <c r="K158" s="22" t="n">
         <v>477.60781</v>
@@ -7561,12 +7768,17 @@
       <c r="M158" s="22" t="n">
         <v>499.46836</v>
       </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+      <c r="N158" s="22" t="n">
+        <v>499.12</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>245.07226</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>0.20408</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>245.07226</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>0.20408</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>5.702</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>21516.19137</v>
@@ -7707,29 +7934,34 @@
         <v>29819.52679</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>34050.00807</v>
+        <v>34186.67817</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>52105.95884000001</v>
+        <v>52322.56011999999</v>
       </c>
       <c r="K162" s="23" t="n">
         <v>64942.67924</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>75513.27139000001</v>
+        <v>75526.96289</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>71269.68552</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>71312.19485</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>94317.254</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
-        <v>8394.741539999999</v>
+        <v>8394.741540000001</v>
       </c>
       <c r="D163" s="22" t="n">
         <v>10947.34643</v>
@@ -7747,26 +7979,31 @@
         <v>14367.92452</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>18232.74277</v>
+        <v>18269.43947</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>23341.75516</v>
+        <v>23519.84685</v>
       </c>
       <c r="K163" s="22" t="n">
         <v>27716.26077</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>44290.47512</v>
+        <v>44296.1866</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>36270.53599</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>36298.02172</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>53961.603</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>3078.05686</v>
@@ -7787,26 +8024,31 @@
         <v>5501.343370000001</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>7898.92778</v>
+        <v>7998.90118</v>
       </c>
       <c r="J164" s="21" t="n">
-        <v>15501.23913</v>
+        <v>15539.74872</v>
       </c>
       <c r="K164" s="22" t="n">
         <v>20816.29357</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>14275.44501</v>
+        <v>14283.42503</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>15167.15915</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>15175.62219</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>16806.085</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>9873.000890000001</v>
@@ -7821,13 +8063,13 @@
         <v>8448.731669999999</v>
       </c>
       <c r="G165" s="22" t="n">
-        <v>8801.184479999998</v>
+        <v>8801.18448</v>
       </c>
       <c r="H165" s="21" t="n">
         <v>9488.49207</v>
       </c>
       <c r="I165" s="22" t="n">
-        <v>7475.915840000001</v>
+        <v>7475.91584</v>
       </c>
       <c r="J165" s="21" t="n">
         <v>12943.55139</v>
@@ -7839,14 +8081,19 @@
         <v>15858.61663</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>19281.24456</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>19287.80512</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>22942.539</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>170.39208</v>
@@ -7881,12 +8128,17 @@
       <c r="M166" s="22" t="n">
         <v>550.74582</v>
       </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+      <c r="N166" s="22" t="n">
+        <v>607.027</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>3009.21545</v>
@@ -7904,29 +8156,34 @@
         <v>4544.96527</v>
       </c>
       <c r="H167" s="33" t="n">
-        <v>4258.3728</v>
+        <v>4258.372800000001</v>
       </c>
       <c r="I167" s="23" t="n">
-        <v>4605.766890000001</v>
+        <v>4606.88501</v>
       </c>
       <c r="J167" s="33" t="n">
-        <v>3402.04568</v>
+        <v>3503.75331</v>
       </c>
       <c r="K167" s="23" t="n">
         <v>5829.897940000001</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>4407.10267</v>
+        <v>4412.2791</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>5076.53211</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>5110.242689999999</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>9500.190000000001</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>2062.34691</v>
@@ -7950,7 +8207,7 @@
         <v>7549.061269999999</v>
       </c>
       <c r="J168" s="21" t="n">
-        <v>6607.966699999999</v>
+        <v>6709.67433</v>
       </c>
       <c r="K168" s="22" t="n">
         <v>9624.85405</v>
@@ -7959,14 +8216,19 @@
         <v>19481.91579</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>32007.20049</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>32034.92951</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>39182.22</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>1562.29206</v>
@@ -7978,35 +8240,40 @@
         <v>2333.2758</v>
       </c>
       <c r="F169" s="21" t="n">
-        <v>315.0423000000002</v>
+        <v>315.0423000000003</v>
       </c>
       <c r="G169" s="22" t="n">
         <v>6005.388</v>
       </c>
       <c r="H169" s="21" t="n">
-        <v>5742.55481</v>
+        <v>5742.554810000001</v>
       </c>
       <c r="I169" s="22" t="n">
-        <v>5778.0518</v>
+        <v>5776.93368</v>
       </c>
       <c r="J169" s="21" t="n">
-        <v>5589.24324</v>
+        <v>5589.243239999999</v>
       </c>
       <c r="K169" s="22" t="n">
         <v>7729.744790000001</v>
       </c>
       <c r="L169" s="22" t="n">
-        <v>17406.24671</v>
+        <v>17401.07028</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>30032.62137</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>30026.63981</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>32695.496</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>418.36942</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>292.14251</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>292.143</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>75.55573</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>2015.23545</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>2015.235</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>2015.23545</v>
@@ -8121,18 +8398,23 @@
       <c r="M172" s="22" t="n">
         <v>794.5750300000001</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>706.088</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>9196.69707</v>
       </c>
       <c r="D173" s="23" t="n">
-        <v>7570.038880000001</v>
+        <v>7570.03888</v>
       </c>
       <c r="E173" s="23" t="n">
         <v>34918.1556</v>
@@ -8150,7 +8432,7 @@
         <v>11316.65234</v>
       </c>
       <c r="J173" s="33" t="n">
-        <v>5643.91266</v>
+        <v>5788.658219999999</v>
       </c>
       <c r="K173" s="23" t="n">
         <v>27996.6929</v>
@@ -8161,18 +8443,23 @@
       <c r="M173" s="23" t="n">
         <v>33376.16897</v>
       </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+      <c r="N173" s="23" t="n">
+        <v>19073.664</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>766.71916</v>
       </c>
       <c r="D174" s="22" t="n">
-        <v>4842.8206</v>
+        <v>4842.820600000001</v>
       </c>
       <c r="E174" s="22" t="n">
         <v>21901.05726</v>
@@ -8187,10 +8474,10 @@
         <v>5530.32347</v>
       </c>
       <c r="I174" s="22" t="n">
-        <v>5418.007619999999</v>
+        <v>5418.00762</v>
       </c>
       <c r="J174" s="21" t="n">
-        <v>5314.42658</v>
+        <v>5376.16829</v>
       </c>
       <c r="K174" s="22" t="n">
         <v>26813.69603</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>9561.394890000001</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>9876.346</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>8429.97791</v>
@@ -8230,7 +8522,7 @@
         <v>5898.644719999999</v>
       </c>
       <c r="J175" s="21" t="n">
-        <v>329.48608</v>
+        <v>412.48993</v>
       </c>
       <c r="K175" s="22" t="n">
         <v>1182.99687</v>
@@ -8241,12 +8533,17 @@
       <c r="M175" s="22" t="n">
         <v>23814.77408</v>
       </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+      <c r="N175" s="22" t="n">
+        <v>9197.317999999999</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>38.43287</v>
@@ -8281,12 +8578,17 @@
       <c r="M176" s="23" t="n">
         <v>9715.91361</v>
       </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+      <c r="N176" s="23" t="n">
+        <v>32626.278</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>0</v>
@@ -8321,12 +8623,17 @@
       <c r="M177" s="22" t="n">
         <v>66.43606</v>
       </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+      <c r="N177" s="22" t="n">
+        <v>58.051</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>0</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>0.02332</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>9649.454230000001</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>32520.359</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>38.43287</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8481,15 +8803,20 @@
       <c r="M181" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>47.845</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
-        <v>9569.582420000001</v>
+        <v>9569.582419999999</v>
       </c>
       <c r="D182" s="23" t="n">
         <v>12843.68961</v>
@@ -8510,23 +8837,28 @@
         <v>33705.97896</v>
       </c>
       <c r="J182" s="33" t="n">
-        <v>37361.92829</v>
+        <v>37361.92929000001</v>
       </c>
       <c r="K182" s="23" t="n">
-        <v>47369.68046</v>
+        <v>47369.68046000001</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>79382.90531999999</v>
+        <v>79402.45532000001</v>
       </c>
       <c r="M182" s="23" t="n">
         <v>80724.35922999999</v>
       </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+      <c r="N182" s="23" t="n">
+        <v>92760.41</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>1589.47063</v>
@@ -8550,7 +8882,7 @@
         <v>4165.64523</v>
       </c>
       <c r="J183" s="33" t="n">
-        <v>4139.53948</v>
+        <v>4139.539479999999</v>
       </c>
       <c r="K183" s="23" t="n">
         <v>14249.43858</v>
@@ -8561,12 +8893,17 @@
       <c r="M183" s="23" t="n">
         <v>8598.227800000001</v>
       </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+      <c r="N183" s="23" t="n">
+        <v>18478.501</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>724.46341</v>
@@ -8596,17 +8933,22 @@
         <v>14173.39377</v>
       </c>
       <c r="L184" s="22" t="n">
-        <v>8746.387710000001</v>
+        <v>8746.387709999999</v>
       </c>
       <c r="M184" s="22" t="n">
         <v>8598.227800000001</v>
       </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+      <c r="N184" s="22" t="n">
+        <v>18478.501</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>1047.0465</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>182.03928</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>3575.03064</v>
@@ -8881,12 +9253,17 @@
       <c r="M191" s="23" t="n">
         <v>1721.9867</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>3109.362</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>3410.55825</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>688.5299699999999</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>16.893</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>10.89002</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>1020.62034</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>3078.367</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>149.5989</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>12.83639</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>14.102</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>3.98347</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>508.9035</v>
@@ -9110,23 +9512,28 @@
         <v>20615.2496</v>
       </c>
       <c r="J197" s="33" t="n">
-        <v>22794.51154</v>
+        <v>22794.51254</v>
       </c>
       <c r="K197" s="23" t="n">
         <v>24410.33184</v>
       </c>
       <c r="L197" s="23" t="n">
-        <v>31136.39782</v>
+        <v>31155.94782</v>
       </c>
       <c r="M197" s="23" t="n">
         <v>37061.53698</v>
       </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+      <c r="N197" s="23" t="n">
+        <v>49137.547</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>490.57998</v>
@@ -9150,23 +9557,28 @@
         <v>990.74839</v>
       </c>
       <c r="J198" s="21" t="n">
-        <v>1844.63817</v>
+        <v>1844.63917</v>
       </c>
       <c r="K198" s="22" t="n">
         <v>2986.40647</v>
       </c>
       <c r="L198" s="22" t="n">
-        <v>8034.05083</v>
+        <v>8053.60083</v>
       </c>
       <c r="M198" s="22" t="n">
         <v>13706.29056</v>
       </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+      <c r="N198" s="22" t="n">
+        <v>24863.179</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>6.6901</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>0</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>21778.99425</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>22721.03</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>11.63342</v>
@@ -9361,12 +9793,17 @@
       <c r="M203" s="22" t="n">
         <v>1576.25217</v>
       </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+      <c r="N203" s="22" t="n">
+        <v>1553.338</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>0</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>1141.73142</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>968.135</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>0</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>501.06172</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>270.876</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>640.6696999999999</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>697.259</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>1572.08463</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>3098.02493</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>3414.404</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>1331.27505</v>
@@ -9547,7 +10004,7 @@
         <v>3325.01201</v>
       </c>
       <c r="I208" s="22" t="n">
-        <v>4645.40197</v>
+        <v>4645.401970000001</v>
       </c>
       <c r="J208" s="21" t="n">
         <v>4834.06684</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>2123.40772</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>2591.59</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>240.80958</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>974.6172100000001</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>822.814</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>2324.09302</v>
@@ -9633,7 +10100,7 @@
         <v>4357.07717</v>
       </c>
       <c r="K210" s="23" t="n">
-        <v>5154.023560000001</v>
+        <v>5154.02356</v>
       </c>
       <c r="L210" s="23" t="n">
         <v>35304.39408</v>
@@ -9641,12 +10108,17 @@
       <c r="M210" s="23" t="n">
         <v>29002.8514</v>
       </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+      <c r="N210" s="23" t="n">
+        <v>17652.312</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>2319.66687</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>28403.67531</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>17453.999</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>4.42615</v>
@@ -9698,7 +10175,7 @@
         <v>69.80352999999999</v>
       </c>
       <c r="F212" s="21" t="n">
-        <v>46.06949</v>
+        <v>46.06948999999999</v>
       </c>
       <c r="G212" s="22" t="n">
         <v>18.86782</v>
@@ -9716,17 +10193,22 @@
         <v>97.08391999999999</v>
       </c>
       <c r="L212" s="22" t="n">
-        <v>53.07220999999999</v>
+        <v>53.07221000000001</v>
       </c>
       <c r="M212" s="22" t="n">
         <v>599.1760899999999</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>198.313</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>100</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>100</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>108010.59281</v>
@@ -9907,26 +10409,31 @@
         <v>207893.80651</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>253746.90624</v>
+        <v>253756.37873</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>214491.8163</v>
+        <v>218137.68934</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>295341.12742</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>329494.04923</v>
+        <v>329472.81123</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>422840.4670600001</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>422782.9217299999</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>604365.04</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>136181.03309</v>
@@ -9947,10 +10454,10 @@
         <v>259924.58237</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>297737.1082200001</v>
+        <v>297742.10822</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>248100.64682</v>
+        <v>253776.89683</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>273125.7864099999</v>
@@ -9959,14 +10466,19 @@
         <v>277588.11298</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>364860.91883</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>364883.41883</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>388757.914</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>105469.69263</v>
@@ -9987,26 +10499,31 @@
         <v>234150.31705</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>272499.02205</v>
+        <v>272504.02205</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>228730.23706</v>
+        <v>234410.23707</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>252972.33787</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>257775.24545</v>
+        <v>258275.24545</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>350941.53843</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>351731.53843</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>409312.552</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>14681.07025</v>
@@ -10030,47 +10547,52 @@
         <v>17472.30733</v>
       </c>
       <c r="J220" s="21" t="n">
-        <v>23154.50461</v>
+        <v>23158.25461</v>
       </c>
       <c r="K220" s="22" t="n">
         <v>22371.37962</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>22624.00581</v>
+        <v>23124.00581</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>27837.70187</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>28605.20187</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>31071.532</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>45398.96405</v>
       </c>
       <c r="D221" s="22" t="n">
-        <v>43486.15294000001</v>
+        <v>43486.15294</v>
       </c>
       <c r="E221" s="22" t="n">
         <v>43563.19306000001</v>
       </c>
       <c r="F221" s="21" t="n">
-        <v>43236.55501</v>
+        <v>43236.55501000001</v>
       </c>
       <c r="G221" s="22" t="n">
         <v>43198.20040000001</v>
       </c>
       <c r="H221" s="21" t="n">
-        <v>42815.37986</v>
+        <v>42815.37986000001</v>
       </c>
       <c r="I221" s="22" t="n">
         <v>42716.94684</v>
       </c>
       <c r="J221" s="21" t="n">
-        <v>42531.46771</v>
+        <v>42531.46771000001</v>
       </c>
       <c r="K221" s="22" t="n">
         <v>42531.3815</v>
@@ -10081,12 +10603,17 @@
       <c r="M221" s="22" t="n">
         <v>41763.63561</v>
       </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+      <c r="N221" s="22" t="n">
+        <v>10523.447</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>6.55334</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>6.55334</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>6.553</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>530.32875</v>
@@ -10161,12 +10693,17 @@
       <c r="M223" s="23" t="n">
         <v>18161.67846</v>
       </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+      <c r="N223" s="23" t="n">
+        <v>42935.337</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>1995.86665</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>11635.867</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>0.18601</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>9.185510000000001</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>906.06041</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>750</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>520.95723</v>
@@ -10441,12 +11008,17 @@
       <c r="M230" s="22" t="n">
         <v>15259.7514</v>
       </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+      <c r="N230" s="22" t="n">
+        <v>30549.47</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>10597.59582</v>
@@ -10458,7 +11030,7 @@
         <v>8471.25222</v>
       </c>
       <c r="F231" s="33" t="n">
-        <v>9814.551140000001</v>
+        <v>9814.551140000003</v>
       </c>
       <c r="G231" s="23" t="n">
         <v>10942.36458</v>
@@ -10481,12 +11053,17 @@
       <c r="M231" s="23" t="n">
         <v>23655.63379</v>
       </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+      <c r="N231" s="23" t="n">
+        <v>28377.758</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>1195.82809</v>
@@ -10507,10 +11084,10 @@
         <v>4361.30162</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>4628.215869999999</v>
+        <v>4628.21587</v>
       </c>
       <c r="J232" s="21" t="n">
-        <v>5370.624309999999</v>
+        <v>5370.62431</v>
       </c>
       <c r="K232" s="22" t="n">
         <v>6901.82608</v>
@@ -10521,12 +11098,17 @@
       <c r="M232" s="22" t="n">
         <v>8898.30119</v>
       </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+      <c r="N232" s="22" t="n">
+        <v>11399.441</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>885.0151900000001</v>
@@ -10561,12 +11143,17 @@
       <c r="M233" s="22" t="n">
         <v>897.40318</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>897.403</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>4516.89364</v>
@@ -10581,32 +11168,37 @@
         <v>5370.541630000001</v>
       </c>
       <c r="G234" s="22" t="n">
-        <v>5489.96444</v>
+        <v>5489.964440000001</v>
       </c>
       <c r="H234" s="21" t="n">
-        <v>4676.629309999999</v>
+        <v>4676.62931</v>
       </c>
       <c r="I234" s="22" t="n">
-        <v>5772.211719999999</v>
+        <v>5772.21172</v>
       </c>
       <c r="J234" s="21" t="n">
-        <v>5878.85759</v>
+        <v>5878.857590000001</v>
       </c>
       <c r="K234" s="22" t="n">
         <v>6078.19707</v>
       </c>
       <c r="L234" s="22" t="n">
-        <v>7065.254849999999</v>
+        <v>7065.25485</v>
       </c>
       <c r="M234" s="22" t="n">
-        <v>8486.402400000001</v>
-      </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+        <v>8486.402399999999</v>
+      </c>
+      <c r="N234" s="22" t="n">
+        <v>8872.940000000001</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>261.99386</v>
@@ -10636,17 +11228,22 @@
         <v>217.23356</v>
       </c>
       <c r="L235" s="22" t="n">
-        <v>323.28321</v>
+        <v>323.2832099999999</v>
       </c>
       <c r="M235" s="22" t="n">
         <v>217.23356</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>217.233</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>3737.86504</v>
@@ -10664,29 +11261,34 @@
         <v>1804.35093</v>
       </c>
       <c r="H236" s="21" t="n">
-        <v>2486.8654</v>
+        <v>2486.865400000001</v>
       </c>
       <c r="I236" s="22" t="n">
         <v>5075.30484</v>
       </c>
       <c r="J236" s="21" t="n">
-        <v>5743.64812</v>
+        <v>5743.648119999999</v>
       </c>
       <c r="K236" s="22" t="n">
         <v>6087.66841</v>
       </c>
       <c r="L236" s="22" t="n">
-        <v>9380.995140000001</v>
+        <v>9380.995139999999</v>
       </c>
       <c r="M236" s="22" t="n">
         <v>5156.29346</v>
       </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="N236" s="22" t="n">
+        <v>6990.741</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>31996.98189</v>
@@ -10704,29 +11306,34 @@
         <v>66623.60613</v>
       </c>
       <c r="H237" s="33" t="n">
-        <v>90897.41439000002</v>
+        <v>90897.41439000001</v>
       </c>
       <c r="I237" s="23" t="n">
         <v>112161.69454</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>121323.58641</v>
+        <v>122965.47636</v>
       </c>
       <c r="K237" s="23" t="n">
         <v>142571.68899</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>161281.15079</v>
+        <v>161281.63509</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>212853.26443</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>212906.58059</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>294899.131</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-66919.80498</v>
@@ -10735,7 +11342,7 @@
         <v>-85018.66040000001</v>
       </c>
       <c r="E238" s="23" t="n">
-        <v>-93564.02709999999</v>
+        <v>-93564.02710000001</v>
       </c>
       <c r="F238" s="33" t="n">
         <v>-130748.35376</v>
@@ -10747,26 +11354,31 @@
         <v>-147241.73908</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-175066.6023</v>
+        <v>-175067.72042</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-179721.9303</v>
+        <v>-180306.72521</v>
       </c>
       <c r="K238" s="23" t="n">
         <v>-185233.29235</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-198633.20905</v>
+        <v>-198638.38548</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-236557.44915</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-236616.72274</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-270104.74</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>-4375.54176</v>
@@ -10787,26 +11399,31 @@
         <v>-11564.22731</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>-3278.721610000001</v>
+        <v>-3273.131</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>-1097.93867</v>
+        <v>-4185.41068</v>
       </c>
       <c r="K239" s="23" t="n">
-        <v>4879.722509999998</v>
+        <v>4879.72251</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>33211.9978</v>
+        <v>33195.45193</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>39866.4207</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>39792.3328</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>119499.64</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>10992.35304</v>
@@ -10827,26 +11444,31 @@
         <v>27027.19162</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>33803.41898</v>
+        <v>33809.00958999999</v>
       </c>
       <c r="J240" s="21" t="n">
-        <v>30889.31259</v>
+        <v>31341.04882</v>
       </c>
       <c r="K240" s="22" t="n">
         <v>54388.63793</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>84289.45725000001</v>
+        <v>84312.98647</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>125951.69006</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>126063.44087</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>159081.393</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>15367.8948</v>
@@ -10870,29 +11492,34 @@
         <v>37082.14059</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>31987.25126</v>
+        <v>35526.4595</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>49508.91542</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>51077.45945</v>
+        <v>51117.53454000001</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>86085.26936000001</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>86271.10806999999</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>39581.753</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
-        <v>242544.25683</v>
+        <v>242544.2568300001</v>
       </c>
       <c r="D242" s="47" t="n">
-        <v>275341.09122</v>
+        <v>275341.0912199999</v>
       </c>
       <c r="E242" s="47" t="n">
         <v>308765.37667</v>
@@ -10901,29 +11528,32 @@
         <v>335616.62893</v>
       </c>
       <c r="G242" s="47" t="n">
-        <v>433152.2461699999</v>
+        <v>433152.2461700001</v>
       </c>
       <c r="H242" s="48" t="n">
         <v>470649.59393</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>628033.09256</v>
+        <v>628253.6526</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>595781.0761500001</v>
+        <v>606497.1023799999</v>
       </c>
       <c r="K242" s="47" t="n">
-        <v>783025.1607499999</v>
+        <v>783025.16075</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>1008069.93826</v>
+        <v>1008123.98701</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>1081909.21139</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>1082418.54094</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>1370257.217</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>167</v>
@@ -10963,23 +11596,26 @@
         <v>304</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>362</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>362</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>377</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>416</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>